--- a/data/trans_orig/P57_AF_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57_AF_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68D6BDAE-9AE4-4874-994F-49150D2D5073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A581A82-D779-4BFB-83D6-26EE17C4D85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{178251CB-C5E3-432E-85A1-44ADE32976CE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5FEDD5BD-025B-4348-90ED-9AA26A7C4F19}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="417">
-  <si>
-    <t>dukeAdic en 2007 (Tasa respuesta: 99,91%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="427">
+  <si>
+    <t>Población con apoyo afectivo bajo (Duke) en 2007 (Tasa respuesta: 99,91%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -77,1219 +77,1249 @@
     <t>5,65%</t>
   </si>
   <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
   </si>
   <si>
     <t>21,37%</t>
   </si>
   <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>Apoyo normal</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con apoyo afectivo bajo (Duke) en 2012 (Tasa respuesta: 99,34%)</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>Población con apoyo afectivo bajo (Duke) en 2015 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>Población con apoyo afectivo bajo (Duke) en 2023 (Tasa respuesta: 98,95%)</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
     <t>15,17%</t>
   </si>
   <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>Apoyo normal</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
   </si>
   <si>
     <t>84,83%</t>
   </si>
   <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
   </si>
   <si>
     <t>14,74%</t>
   </si>
   <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
   </si>
   <si>
     <t>85,26%</t>
   </si>
   <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>dukeAdic en 2012 (Tasa respuesta: 99,34%)</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>dukeAdic en 2015 (Tasa respuesta: 99,53%)</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
   </si>
   <si>
     <t>83,12%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>dukeAdic en 2023 (Tasa respuesta: 98,95%)</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
   </si>
 </sst>
 </file>
@@ -1701,7 +1731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FB573D0-6D91-48CA-8C32-E64D24767C68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BEFC047-221E-402C-932B-4AAA2E50CD1C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2478,10 +2508,10 @@
         <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2496,13 +2526,13 @@
         <v>785972</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>804</v>
@@ -2511,13 +2541,13 @@
         <v>831076</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1632</v>
@@ -2526,13 +2556,13 @@
         <v>1617047</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2600,13 +2630,13 @@
         <v>461964</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>599</v>
@@ -2615,13 +2645,13 @@
         <v>630467</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>1056</v>
@@ -2633,10 +2663,10 @@
         <v>89</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2651,13 +2681,13 @@
         <v>2810062</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>2696</v>
@@ -2666,28 +2696,28 @@
         <v>2746755</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>5449</v>
       </c>
       <c r="N20" s="7">
-        <v>5556817</v>
+        <v>5556818</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2729,7 +2759,7 @@
         <v>6505</v>
       </c>
       <c r="N21" s="7">
-        <v>6649248</v>
+        <v>6649249</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2743,7 +2773,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2764,7 +2794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFD4FD9-6F41-4ADD-8A11-7FA70AC3D700}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550A3EE7-42AF-4E59-9817-8CD40771B41C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2781,7 +2811,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2888,13 +2918,13 @@
         <v>22224</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -2903,13 +2933,13 @@
         <v>29368</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>50</v>
@@ -2918,13 +2948,13 @@
         <v>51592</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2939,13 +2969,13 @@
         <v>91800</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H5" s="7">
         <v>73</v>
@@ -2954,13 +2984,13 @@
         <v>82537</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>169</v>
@@ -2969,13 +2999,13 @@
         <v>174337</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3043,13 +3073,13 @@
         <v>64109</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H7" s="7">
         <v>74</v>
@@ -3058,13 +3088,13 @@
         <v>79969</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M7" s="7">
         <v>135</v>
@@ -3073,13 +3103,13 @@
         <v>144077</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3094,13 +3124,13 @@
         <v>520515</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H8" s="7">
         <v>473</v>
@@ -3109,13 +3139,13 @@
         <v>499477</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>961</v>
@@ -3124,13 +3154,13 @@
         <v>1019993</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3198,13 +3228,13 @@
         <v>187916</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H10" s="7">
         <v>181</v>
@@ -3213,13 +3243,13 @@
         <v>200935</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M10" s="7">
         <v>349</v>
@@ -3228,13 +3258,13 @@
         <v>388851</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3249,13 +3279,13 @@
         <v>825935</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H11" s="7">
         <v>753</v>
@@ -3264,13 +3294,13 @@
         <v>824917</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M11" s="7">
         <v>1517</v>
@@ -3279,13 +3309,13 @@
         <v>1650852</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3353,13 +3383,13 @@
         <v>133540</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>39</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H13" s="7">
         <v>134</v>
@@ -3368,13 +3398,13 @@
         <v>150355</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M13" s="7">
         <v>250</v>
@@ -3383,13 +3413,13 @@
         <v>283895</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3404,13 +3434,13 @@
         <v>616845</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>49</v>
       </c>
       <c r="H14" s="7">
         <v>569</v>
@@ -3419,13 +3449,13 @@
         <v>624677</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M14" s="7">
         <v>1135</v>
@@ -3434,13 +3464,13 @@
         <v>1241521</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3508,13 +3538,13 @@
         <v>171906</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H16" s="7">
         <v>198</v>
@@ -3523,13 +3553,13 @@
         <v>210436</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M16" s="7">
         <v>359</v>
@@ -3538,13 +3568,13 @@
         <v>382341</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3559,13 +3589,13 @@
         <v>770963</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H17" s="7">
         <v>795</v>
@@ -3574,13 +3604,13 @@
         <v>829318</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M17" s="7">
         <v>1539</v>
@@ -3589,13 +3619,13 @@
         <v>1600281</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3663,13 +3693,13 @@
         <v>579695</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H19" s="7">
         <v>613</v>
@@ -3678,13 +3708,13 @@
         <v>671062</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>219</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="M19" s="7">
         <v>1143</v>
@@ -3693,13 +3723,13 @@
         <v>1250757</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3714,13 +3744,13 @@
         <v>2826057</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H20" s="7">
         <v>2663</v>
@@ -3729,13 +3759,13 @@
         <v>2860926</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>229</v>
+        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>5321</v>
@@ -3744,13 +3774,13 @@
         <v>5686984</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3806,7 +3836,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3827,7 +3857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1802360-04A7-422A-9196-27ACB131E457}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B6E895-DAB6-47CA-A64F-599C3053FD8F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3844,7 +3874,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3951,13 +3981,13 @@
         <v>17272</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="H4" s="7">
         <v>28</v>
@@ -3966,13 +3996,13 @@
         <v>27621</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="M4" s="7">
         <v>44</v>
@@ -3981,13 +4011,13 @@
         <v>44893</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>235</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,13 +4032,13 @@
         <v>98216</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="H5" s="7">
         <v>86</v>
@@ -4017,13 +4047,13 @@
         <v>84771</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="M5" s="7">
         <v>182</v>
@@ -4032,13 +4062,13 @@
         <v>182986</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>190</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4106,13 +4136,13 @@
         <v>95736</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>166</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="H7" s="7">
         <v>109</v>
@@ -4121,13 +4151,13 @@
         <v>112042</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="M7" s="7">
         <v>201</v>
@@ -4136,13 +4166,13 @@
         <v>207778</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,13 +4187,13 @@
         <v>461572</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>259</v>
+        <v>176</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="H8" s="7">
         <v>439</v>
@@ -4172,13 +4202,13 @@
         <v>444529</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="M8" s="7">
         <v>885</v>
@@ -4187,13 +4217,13 @@
         <v>906101</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4261,13 +4291,13 @@
         <v>134118</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="H10" s="7">
         <v>137</v>
@@ -4276,13 +4306,13 @@
         <v>150314</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="M10" s="7">
         <v>263</v>
@@ -4291,13 +4321,13 @@
         <v>284432</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4312,13 +4342,13 @@
         <v>886206</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H11" s="7">
         <v>835</v>
@@ -4327,13 +4357,13 @@
         <v>887457</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="M11" s="7">
         <v>1658</v>
@@ -4342,13 +4372,13 @@
         <v>1773664</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4416,13 +4446,13 @@
         <v>124670</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>186</v>
+        <v>278</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>182</v>
+        <v>280</v>
       </c>
       <c r="H13" s="7">
         <v>138</v>
@@ -4431,13 +4461,13 @@
         <v>150918</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="M13" s="7">
         <v>251</v>
@@ -4446,13 +4476,13 @@
         <v>275588</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>198</v>
+        <v>284</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4467,13 +4497,13 @@
         <v>629750</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>196</v>
+        <v>286</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>191</v>
+        <v>287</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H14" s="7">
         <v>592</v>
@@ -4482,13 +4512,13 @@
         <v>626852</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="M14" s="7">
         <v>1170</v>
@@ -4497,13 +4527,13 @@
         <v>1256602</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4574,10 +4604,10 @@
         <v>294</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H16" s="7">
         <v>157</v>
@@ -4586,13 +4616,13 @@
         <v>177332</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M16" s="7">
         <v>292</v>
@@ -4601,13 +4631,13 @@
         <v>311039</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4622,28 +4652,28 @@
         <v>797777</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="H17" s="7">
         <v>800</v>
       </c>
       <c r="I17" s="7">
-        <v>864065</v>
+        <v>864066</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M17" s="7">
         <v>1592</v>
@@ -4652,13 +4682,13 @@
         <v>1661843</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4685,7 +4715,7 @@
         <v>957</v>
       </c>
       <c r="I18" s="7">
-        <v>1041397</v>
+        <v>1041398</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4726,13 +4756,13 @@
         <v>505503</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>162</v>
+        <v>313</v>
       </c>
       <c r="H19" s="7">
         <v>569</v>
@@ -4741,13 +4771,13 @@
         <v>618226</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M19" s="7">
         <v>1051</v>
@@ -4756,13 +4786,13 @@
         <v>1123729</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4777,13 +4807,13 @@
         <v>2873521</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>172</v>
+        <v>319</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="H20" s="7">
         <v>2752</v>
@@ -4792,13 +4822,13 @@
         <v>2907675</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="M20" s="7">
         <v>5487</v>
@@ -4807,13 +4837,13 @@
         <v>5781197</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4869,7 +4899,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4890,7 +4920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A969C9-814C-474C-ACDC-63C2AE3DE5C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A9665A7-D700-4200-BD2B-74B0FF07EA45}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4907,7 +4937,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5014,13 +5044,13 @@
         <v>21392</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>76</v>
+        <v>328</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="H4" s="7">
         <v>44</v>
@@ -5029,13 +5059,13 @@
         <v>20592</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>327</v>
+        <v>161</v>
       </c>
       <c r="M4" s="7">
         <v>73</v>
@@ -5044,13 +5074,13 @@
         <v>41984</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>76</v>
+        <v>333</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5065,13 +5095,13 @@
         <v>78587</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>85</v>
+        <v>337</v>
       </c>
       <c r="H5" s="7">
         <v>195</v>
@@ -5080,13 +5110,13 @@
         <v>108075</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>333</v>
+        <v>169</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="M5" s="7">
         <v>283</v>
@@ -5095,13 +5125,13 @@
         <v>186661</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>85</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,13 +5199,13 @@
         <v>94280</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>168</v>
+        <v>343</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="H7" s="7">
         <v>203</v>
@@ -5184,13 +5214,13 @@
         <v>109811</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="M7" s="7">
         <v>318</v>
@@ -5199,13 +5229,13 @@
         <v>204092</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>344</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,13 +5250,13 @@
         <v>449889</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>178</v>
+        <v>351</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="H8" s="7">
         <v>783</v>
@@ -5235,13 +5265,13 @@
         <v>477542</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="M8" s="7">
         <v>1274</v>
@@ -5250,13 +5280,13 @@
         <v>927430</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>351</v>
+        <v>205</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5324,13 +5354,13 @@
         <v>150877</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="H10" s="7">
         <v>318</v>
@@ -5339,13 +5369,13 @@
         <v>203631</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="M10" s="7">
         <v>491</v>
@@ -5354,13 +5384,13 @@
         <v>354509</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5375,13 +5405,13 @@
         <v>881135</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="H11" s="7">
         <v>1181</v>
@@ -5390,13 +5420,13 @@
         <v>846609</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="M11" s="7">
         <v>1963</v>
@@ -5405,13 +5435,13 @@
         <v>1727743</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5479,13 +5509,13 @@
         <v>101611</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="H13" s="7">
         <v>171</v>
@@ -5494,13 +5524,13 @@
         <v>240829</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="M13" s="7">
         <v>283</v>
@@ -5509,13 +5539,13 @@
         <v>342440</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5530,13 +5560,13 @@
         <v>625652</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="H14" s="7">
         <v>869</v>
@@ -5545,13 +5575,13 @@
         <v>630185</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M14" s="7">
         <v>1431</v>
@@ -5560,13 +5590,13 @@
         <v>1255837</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5634,13 +5664,13 @@
         <v>171324</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>338</v>
+        <v>395</v>
       </c>
       <c r="H16" s="7">
         <v>298</v>
@@ -5649,13 +5679,13 @@
         <v>200553</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="M16" s="7">
         <v>493</v>
@@ -5664,13 +5694,13 @@
         <v>371876</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>75</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5685,13 +5715,13 @@
         <v>782985</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>345</v>
+        <v>402</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="H17" s="7">
         <v>1243</v>
@@ -5700,13 +5730,13 @@
         <v>934696</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="M17" s="7">
         <v>2042</v>
@@ -5715,13 +5745,13 @@
         <v>1717682</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>83</v>
+        <v>407</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5789,13 +5819,13 @@
         <v>539484</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="H19" s="7">
         <v>1034</v>
@@ -5804,13 +5834,13 @@
         <v>775417</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="M19" s="7">
         <v>1658</v>
@@ -5819,13 +5849,13 @@
         <v>1314900</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5840,13 +5870,13 @@
         <v>2818249</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="H20" s="7">
         <v>4271</v>
@@ -5855,28 +5885,28 @@
         <v>2997105</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="M20" s="7">
         <v>6993</v>
       </c>
       <c r="N20" s="7">
-        <v>5815355</v>
+        <v>5815356</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5918,7 +5948,7 @@
         <v>8651</v>
       </c>
       <c r="N21" s="7">
-        <v>7130255</v>
+        <v>7130256</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5932,7 +5962,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57_AF_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57_AF_R-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A581A82-D779-4BFB-83D6-26EE17C4D85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28460A88-4702-4E96-A596-49EE97B90D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5FEDD5BD-025B-4348-90ED-9AA26A7C4F19}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FA3D6F03-15BB-4F62-ADFB-68C75F14476E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="417">
   <si>
     <t>Población con apoyo afectivo bajo (Duke) en 2007 (Tasa respuesta: 99,91%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Apoyo bajo</t>
@@ -77,28 +77,28 @@
     <t>5,65%</t>
   </si>
   <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
   </si>
   <si>
     <t>21,37%</t>
   </si>
   <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
   </si>
   <si>
     <t>13,42%</t>
   </si>
   <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
   </si>
   <si>
     <t>Apoyo normal</t>
@@ -107,49 +107,49 @@
     <t>94,35%</t>
   </si>
   <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
   </si>
   <si>
     <t>78,63%</t>
   </si>
   <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
   </si>
   <si>
     <t>86,58%</t>
   </si>
   <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>13,85%</t>
   </si>
   <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
   </si>
   <si>
     <t>19,76%</t>
   </si>
   <si>
-    <t>16,52%</t>
+    <t>16,69%</t>
   </si>
   <si>
     <t>23,27%</t>
@@ -158,19 +158,19 @@
     <t>16,79%</t>
   </si>
   <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
   </si>
   <si>
     <t>86,15%</t>
   </si>
   <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
   </si>
   <si>
     <t>80,24%</t>
@@ -179,130 +179,130 @@
     <t>76,73%</t>
   </si>
   <si>
-    <t>83,48%</t>
+    <t>83,31%</t>
   </si>
   <si>
     <t>83,21%</t>
   </si>
   <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>14,42%</t>
   </si>
   <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
   </si>
   <si>
     <t>17,83%</t>
   </si>
   <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
   </si>
   <si>
     <t>16,13%</t>
   </si>
   <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
   </si>
   <si>
     <t>85,58%</t>
   </si>
   <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
   </si>
   <si>
     <t>82,17%</t>
   </si>
   <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
   </si>
   <si>
     <t>83,87%</t>
   </si>
   <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>12,14%</t>
   </si>
   <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
   </si>
   <si>
     <t>16,62%</t>
   </si>
   <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
   </si>
   <si>
     <t>14,39%</t>
   </si>
   <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
   </si>
   <si>
     <t>87,86%</t>
   </si>
   <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
   </si>
   <si>
     <t>83,38%</t>
   </si>
   <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
   </si>
   <si>
     <t>85,61%</t>
   </si>
   <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -311,97 +311,103 @@
     <t>16,43%</t>
   </si>
   <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
   </si>
   <si>
     <t>19,91%</t>
   </si>
   <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
   </si>
   <si>
     <t>18,26%</t>
   </si>
   <si>
-    <t>19,95%</t>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
   </si>
   <si>
     <t>83,57%</t>
   </si>
   <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
   </si>
   <si>
     <t>80,09%</t>
   </si>
   <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
   </si>
   <si>
     <t>81,74%</t>
   </si>
   <si>
-    <t>80,05%</t>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
   </si>
   <si>
     <t>14,12%</t>
   </si>
   <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
   </si>
   <si>
     <t>18,67%</t>
   </si>
   <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
   </si>
   <si>
     <t>85,88%</t>
   </si>
   <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
   </si>
   <si>
     <t>81,33%</t>
   </si>
   <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -413,651 +419,627 @@
     <t>19,49%</t>
   </si>
   <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
   </si>
   <si>
     <t>26,24%</t>
   </si>
   <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
   </si>
   <si>
     <t>22,84%</t>
   </si>
   <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
   </si>
   <si>
     <t>80,51%</t>
   </si>
   <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
   </si>
   <si>
     <t>73,76%</t>
   </si>
   <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
   </si>
   <si>
     <t>77,16%</t>
   </si>
   <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
   </si>
   <si>
     <t>10,97%</t>
   </si>
   <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
   </si>
   <si>
     <t>13,8%</t>
   </si>
   <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
   </si>
   <si>
     <t>12,38%</t>
   </si>
   <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
   </si>
   <si>
     <t>89,03%</t>
   </si>
   <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
   </si>
   <si>
     <t>86,2%</t>
   </si>
   <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
   </si>
   <si>
     <t>87,62%</t>
   </si>
   <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
   </si>
   <si>
     <t>18,53%</t>
   </si>
   <si>
-    <t>16,1%</t>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>Población con apoyo afectivo bajo (Duke) en 2016 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>Población con apoyo afectivo bajo (Duke) en 2023 (Tasa respuesta: 98,95%)</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
   </si>
   <si>
     <t>21,39%</t>
   </si>
   <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
   </si>
   <si>
     <t>78,61%</t>
   </si>
   <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>Población con apoyo afectivo bajo (Duke) en 2015 (Tasa respuesta: 99,53%)</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>Población con apoyo afectivo bajo (Duke) en 2023 (Tasa respuesta: 98,95%)</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
     <t>88,32%</t>
   </si>
   <si>
@@ -1130,9 +1112,6 @@
     <t>19,39%</t>
   </si>
   <si>
-    <t>17,47%</t>
-  </si>
-  <si>
     <t>21,69%</t>
   </si>
   <si>
@@ -1157,9 +1136,6 @@
     <t>78,31%</t>
   </si>
   <si>
-    <t>82,53%</t>
-  </si>
-  <si>
     <t>81,22%</t>
   </si>
   <si>
@@ -1187,9 +1163,6 @@
     <t>21,43%</t>
   </si>
   <si>
-    <t>14,77%</t>
-  </si>
-  <si>
     <t>39,98%</t>
   </si>
   <si>
@@ -1215,9 +1188,6 @@
   </si>
   <si>
     <t>60,02%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
   </si>
   <si>
     <t>17,95%</t>
@@ -1731,7 +1701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BEFC047-221E-402C-932B-4AAA2E50CD1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4862C4C-A06E-433B-899D-D8193CF27F64}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2508,10 +2478,10 @@
         <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2523,16 +2493,16 @@
         <v>828</v>
       </c>
       <c r="D17" s="7">
-        <v>785972</v>
+        <v>785971</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>804</v>
@@ -2541,13 +2511,13 @@
         <v>831076</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1632</v>
@@ -2556,13 +2526,13 @@
         <v>1617047</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2574,7 +2544,7 @@
         <v>992</v>
       </c>
       <c r="D18" s="7">
-        <v>940541</v>
+        <v>940540</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2630,13 +2600,13 @@
         <v>461964</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>599</v>
@@ -2645,13 +2615,13 @@
         <v>630467</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>1056</v>
@@ -2663,10 +2633,10 @@
         <v>89</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,13 +2651,13 @@
         <v>2810062</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>2696</v>
@@ -2696,28 +2666,28 @@
         <v>2746755</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>5449</v>
       </c>
       <c r="N20" s="7">
-        <v>5556818</v>
+        <v>5556817</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2759,7 +2729,7 @@
         <v>6505</v>
       </c>
       <c r="N21" s="7">
-        <v>6649249</v>
+        <v>6649248</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2773,7 +2743,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2794,7 +2764,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550A3EE7-42AF-4E59-9817-8CD40771B41C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A865ED-B3C4-4FD5-91BC-8D5299B74558}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2811,7 +2781,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2918,13 +2888,13 @@
         <v>22224</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -2933,13 +2903,13 @@
         <v>29368</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>50</v>
@@ -2948,13 +2918,13 @@
         <v>51592</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,13 +2939,13 @@
         <v>91800</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H5" s="7">
         <v>73</v>
@@ -2984,13 +2954,13 @@
         <v>82537</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>169</v>
@@ -2999,13 +2969,13 @@
         <v>174337</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,13 +3043,13 @@
         <v>64109</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H7" s="7">
         <v>74</v>
@@ -3088,13 +3058,13 @@
         <v>79969</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M7" s="7">
         <v>135</v>
@@ -3103,13 +3073,13 @@
         <v>144077</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,13 +3094,13 @@
         <v>520515</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H8" s="7">
         <v>473</v>
@@ -3139,13 +3109,13 @@
         <v>499477</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>961</v>
@@ -3154,13 +3124,13 @@
         <v>1019993</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,13 +3198,13 @@
         <v>187916</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H10" s="7">
         <v>181</v>
@@ -3243,13 +3213,13 @@
         <v>200935</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M10" s="7">
         <v>349</v>
@@ -3258,13 +3228,13 @@
         <v>388851</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,13 +3249,13 @@
         <v>825935</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H11" s="7">
         <v>753</v>
@@ -3294,13 +3264,13 @@
         <v>824917</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M11" s="7">
         <v>1517</v>
@@ -3309,13 +3279,13 @@
         <v>1650852</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,13 +3353,13 @@
         <v>133540</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>129</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H13" s="7">
         <v>134</v>
@@ -3398,13 +3368,13 @@
         <v>150355</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M13" s="7">
         <v>250</v>
@@ -3413,13 +3383,13 @@
         <v>283895</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>183</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,13 +3404,13 @@
         <v>616845</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>185</v>
+        <v>139</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>186</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="H14" s="7">
         <v>569</v>
@@ -3449,13 +3419,13 @@
         <v>624677</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M14" s="7">
         <v>1135</v>
@@ -3464,13 +3434,13 @@
         <v>1241521</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3544,7 +3514,7 @@
         <v>194</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="H16" s="7">
         <v>198</v>
@@ -3553,13 +3523,13 @@
         <v>210436</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>197</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="M16" s="7">
         <v>359</v>
@@ -3568,13 +3538,13 @@
         <v>382341</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,13 +3559,13 @@
         <v>770963</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H17" s="7">
         <v>795</v>
@@ -3604,13 +3574,13 @@
         <v>829318</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>206</v>
+        <v>140</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="M17" s="7">
         <v>1539</v>
@@ -3619,13 +3589,13 @@
         <v>1600281</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,13 +3663,13 @@
         <v>579695</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H19" s="7">
         <v>613</v>
@@ -3708,13 +3678,13 @@
         <v>671062</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>130</v>
+        <v>211</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M19" s="7">
         <v>1143</v>
@@ -3723,13 +3693,13 @@
         <v>1250757</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3744,13 +3714,13 @@
         <v>2826057</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H20" s="7">
         <v>2663</v>
@@ -3759,13 +3729,13 @@
         <v>2860926</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>140</v>
+        <v>221</v>
       </c>
       <c r="M20" s="7">
         <v>5321</v>
@@ -3774,13 +3744,13 @@
         <v>5686984</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3836,7 +3806,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3857,7 +3827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B6E895-DAB6-47CA-A64F-599C3053FD8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED7978D-2410-416F-B8ED-04C5381803E1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3874,7 +3844,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3981,13 +3951,13 @@
         <v>17272</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>228</v>
+        <v>72</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H4" s="7">
         <v>28</v>
@@ -3996,13 +3966,13 @@
         <v>27621</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M4" s="7">
         <v>44</v>
@@ -4011,13 +3981,13 @@
         <v>44893</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,13 +4002,13 @@
         <v>98216</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>237</v>
+        <v>80</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H5" s="7">
         <v>86</v>
@@ -4047,13 +4017,13 @@
         <v>84771</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M5" s="7">
         <v>182</v>
@@ -4062,13 +4032,13 @@
         <v>182986</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,13 +4106,13 @@
         <v>95736</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>166</v>
+        <v>242</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H7" s="7">
         <v>109</v>
@@ -4151,13 +4121,13 @@
         <v>112042</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M7" s="7">
         <v>201</v>
@@ -4166,13 +4136,13 @@
         <v>207778</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,13 +4157,13 @@
         <v>461572</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>176</v>
+        <v>251</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H8" s="7">
         <v>439</v>
@@ -4202,13 +4172,13 @@
         <v>444529</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M8" s="7">
         <v>885</v>
@@ -4321,13 +4291,13 @@
         <v>284432</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,13 +4312,13 @@
         <v>886206</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H11" s="7">
         <v>835</v>
@@ -4357,13 +4327,13 @@
         <v>887457</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M11" s="7">
         <v>1658</v>
@@ -4372,13 +4342,13 @@
         <v>1773664</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4446,13 +4416,13 @@
         <v>124670</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>278</v>
+        <v>96</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H13" s="7">
         <v>138</v>
@@ -4461,13 +4431,13 @@
         <v>150918</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>281</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="M13" s="7">
         <v>251</v>
@@ -4476,13 +4446,13 @@
         <v>275588</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4497,13 +4467,13 @@
         <v>629750</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>286</v>
+        <v>106</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="H14" s="7">
         <v>592</v>
@@ -4512,13 +4482,13 @@
         <v>626852</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>290</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>1170</v>
@@ -4527,13 +4497,13 @@
         <v>1256602</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4601,13 +4571,13 @@
         <v>133707</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>294</v>
+        <v>90</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H16" s="7">
         <v>157</v>
@@ -4616,13 +4586,13 @@
         <v>177332</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="M16" s="7">
         <v>292</v>
@@ -4631,13 +4601,13 @@
         <v>311039</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4652,28 +4622,28 @@
         <v>797777</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>303</v>
+        <v>100</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="H17" s="7">
         <v>800</v>
       </c>
       <c r="I17" s="7">
-        <v>864066</v>
+        <v>864065</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="M17" s="7">
         <v>1592</v>
@@ -4682,13 +4652,13 @@
         <v>1661843</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,7 +4685,7 @@
         <v>957</v>
       </c>
       <c r="I18" s="7">
-        <v>1041398</v>
+        <v>1041397</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4756,13 +4726,13 @@
         <v>505503</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>228</v>
+        <v>72</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="H19" s="7">
         <v>569</v>
@@ -4771,13 +4741,13 @@
         <v>618226</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="M19" s="7">
         <v>1051</v>
@@ -4786,13 +4756,13 @@
         <v>1123729</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>107</v>
+        <v>309</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,13 +4777,13 @@
         <v>2873521</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>237</v>
+        <v>80</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H20" s="7">
         <v>2752</v>
@@ -4822,13 +4792,13 @@
         <v>2907675</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="M20" s="7">
         <v>5487</v>
@@ -4837,13 +4807,13 @@
         <v>5781197</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>114</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4899,7 +4869,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4920,7 +4890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A9665A7-D700-4200-BD2B-74B0FF07EA45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554D417B-28DC-499F-A3D1-B4D9217BBF3D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4937,7 +4907,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5044,13 +5014,13 @@
         <v>21392</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="H4" s="7">
         <v>44</v>
@@ -5059,13 +5029,13 @@
         <v>20592</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>161</v>
+        <v>324</v>
       </c>
       <c r="M4" s="7">
         <v>73</v>
@@ -5074,13 +5044,13 @@
         <v>41984</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5095,13 +5065,13 @@
         <v>78587</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="H5" s="7">
         <v>195</v>
@@ -5110,13 +5080,13 @@
         <v>108075</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>169</v>
+        <v>332</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="M5" s="7">
         <v>283</v>
@@ -5125,13 +5095,13 @@
         <v>186661</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5199,13 +5169,13 @@
         <v>94280</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="H7" s="7">
         <v>203</v>
@@ -5214,13 +5184,13 @@
         <v>109811</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="M7" s="7">
         <v>318</v>
@@ -5229,13 +5199,13 @@
         <v>204092</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5250,13 +5220,13 @@
         <v>449889</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="H8" s="7">
         <v>783</v>
@@ -5265,13 +5235,13 @@
         <v>477542</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="M8" s="7">
         <v>1274</v>
@@ -5280,13 +5250,13 @@
         <v>927430</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5354,13 +5324,13 @@
         <v>150877</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="H10" s="7">
         <v>318</v>
@@ -5369,13 +5339,13 @@
         <v>203631</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>363</v>
+        <v>93</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="M10" s="7">
         <v>491</v>
@@ -5384,13 +5354,13 @@
         <v>354509</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5405,13 +5375,13 @@
         <v>881135</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="H11" s="7">
         <v>1181</v>
@@ -5420,13 +5390,13 @@
         <v>846609</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>372</v>
+        <v>103</v>
       </c>
       <c r="M11" s="7">
         <v>1963</v>
@@ -5435,13 +5405,13 @@
         <v>1727743</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5509,13 +5479,13 @@
         <v>101611</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="H13" s="7">
         <v>171</v>
@@ -5524,13 +5494,13 @@
         <v>240829</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="M13" s="7">
         <v>283</v>
@@ -5539,13 +5509,13 @@
         <v>342440</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>382</v>
+        <v>291</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5560,13 +5530,13 @@
         <v>625652</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="H14" s="7">
         <v>869</v>
@@ -5575,13 +5545,13 @@
         <v>630185</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="M14" s="7">
         <v>1431</v>
@@ -5590,13 +5560,13 @@
         <v>1255837</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>392</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5664,13 +5634,13 @@
         <v>171324</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="H16" s="7">
         <v>298</v>
@@ -5679,13 +5649,13 @@
         <v>200553</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="M16" s="7">
         <v>493</v>
@@ -5694,13 +5664,13 @@
         <v>371876</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>177</v>
+        <v>129</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5715,13 +5685,13 @@
         <v>782985</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="H17" s="7">
         <v>1243</v>
@@ -5730,13 +5700,13 @@
         <v>934696</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="M17" s="7">
         <v>2042</v>
@@ -5745,13 +5715,13 @@
         <v>1717682</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>185</v>
+        <v>139</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5819,13 +5789,13 @@
         <v>539484</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="H19" s="7">
         <v>1034</v>
@@ -5834,13 +5804,13 @@
         <v>775417</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="M19" s="7">
         <v>1658</v>
@@ -5849,13 +5819,13 @@
         <v>1314900</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5870,13 +5840,13 @@
         <v>2818249</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="H20" s="7">
         <v>4271</v>
@@ -5885,13 +5855,13 @@
         <v>2997105</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="M20" s="7">
         <v>6993</v>
@@ -5900,13 +5870,13 @@
         <v>5815356</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5962,7 +5932,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57_AF_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57_AF_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28460A88-4702-4E96-A596-49EE97B90D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{426ABD5B-287E-4053-8EEC-316E9A6A5557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FA3D6F03-15BB-4F62-ADFB-68C75F14476E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{768C2A67-E692-48B1-8593-11166C355B75}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="433">
   <si>
     <t>Población con apoyo afectivo bajo (Duke) en 2007 (Tasa respuesta: 99,91%)</t>
   </si>
@@ -74,61 +74,61 @@
     <t>Apoyo bajo</t>
   </si>
   <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
   </si>
   <si>
     <t>Apoyo normal</t>
   </si>
   <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,1159 +137,1207 @@
     <t>2-10.000 hab</t>
   </si>
   <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
   </si>
   <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con apoyo afectivo bajo (Duke) en 2012 (Tasa respuesta: 99,34%)</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>Población con apoyo afectivo bajo (Duke) en 2016 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
   </si>
   <si>
     <t>20,04%</t>
   </si>
   <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con apoyo afectivo bajo (Duke) en 2012 (Tasa respuesta: 99,34%)</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
   </si>
   <si>
     <t>22,17%</t>
   </si>
   <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>Población con apoyo afectivo bajo (Duke) en 2016 (Tasa respuesta: 99,53%)</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
   </si>
   <si>
     <t>16,54%</t>
   </si>
   <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
   </si>
   <si>
     <t>Población con apoyo afectivo bajo (Duke) en 2023 (Tasa respuesta: 98,95%)</t>
   </si>
   <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
   </si>
   <si>
     <t>30,27%</t>
   </si>
   <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
   </si>
   <si>
     <t>39,98%</t>
   </si>
   <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
   </si>
 </sst>
 </file>
@@ -1701,7 +1749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4862C4C-A06E-433B-899D-D8193CF27F64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D26F12-9CB0-43B1-98AF-1A052E6DD1D6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1819,10 +1867,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D4" s="7">
-        <v>6518</v>
+        <v>70605</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1834,10 +1882,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="I4" s="7">
-        <v>24094</v>
+        <v>78258</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1849,10 +1897,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>34</v>
+        <v>154</v>
       </c>
       <c r="N4" s="7">
-        <v>30612</v>
+        <v>148864</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1870,10 +1918,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="D5" s="7">
-        <v>108840</v>
+        <v>44753</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1885,10 +1933,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="I5" s="7">
-        <v>88661</v>
+        <v>34497</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1900,10 +1948,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>199</v>
+        <v>79</v>
       </c>
       <c r="N5" s="7">
-        <v>197501</v>
+        <v>79249</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1974,10 +2022,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>81</v>
+        <v>396</v>
       </c>
       <c r="D7" s="7">
-        <v>80154</v>
+        <v>393856</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1989,10 +2037,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>110</v>
+        <v>377</v>
       </c>
       <c r="I7" s="7">
-        <v>113523</v>
+        <v>384494</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2004,10 +2052,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>191</v>
+        <v>773</v>
       </c>
       <c r="N7" s="7">
-        <v>193677</v>
+        <v>778350</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2025,10 +2073,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>497</v>
+        <v>182</v>
       </c>
       <c r="D8" s="7">
-        <v>498500</v>
+        <v>184798</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2040,10 +2088,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>457</v>
+        <v>190</v>
       </c>
       <c r="I8" s="7">
-        <v>461078</v>
+        <v>190107</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2055,10 +2103,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>954</v>
+        <v>372</v>
       </c>
       <c r="N8" s="7">
-        <v>959578</v>
+        <v>374905</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2129,10 +2177,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>130</v>
+        <v>542</v>
       </c>
       <c r="D10" s="7">
-        <v>138534</v>
+        <v>578667</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2144,10 +2192,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>158</v>
+        <v>558</v>
       </c>
       <c r="I10" s="7">
-        <v>172664</v>
+        <v>603756</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2159,10 +2207,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>288</v>
+        <v>1100</v>
       </c>
       <c r="N10" s="7">
-        <v>311198</v>
+        <v>1182423</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2180,10 +2228,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>765</v>
+        <v>353</v>
       </c>
       <c r="D11" s="7">
-        <v>822182</v>
+        <v>382049</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2195,10 +2243,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>750</v>
+        <v>350</v>
       </c>
       <c r="I11" s="7">
-        <v>795729</v>
+        <v>364637</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2210,10 +2258,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1515</v>
+        <v>703</v>
       </c>
       <c r="N11" s="7">
-        <v>1617911</v>
+        <v>746686</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2284,10 +2332,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>76</v>
+        <v>368</v>
       </c>
       <c r="D13" s="7">
-        <v>82189</v>
+        <v>383737</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2299,10 +2347,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>111</v>
+        <v>408</v>
       </c>
       <c r="I13" s="7">
-        <v>113630</v>
+        <v>397446</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2314,10 +2362,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>187</v>
+        <v>776</v>
       </c>
       <c r="N13" s="7">
-        <v>195819</v>
+        <v>781184</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2335,10 +2383,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>564</v>
+        <v>272</v>
       </c>
       <c r="D14" s="7">
-        <v>594569</v>
+        <v>293021</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2350,10 +2398,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>585</v>
+        <v>288</v>
       </c>
       <c r="I14" s="7">
-        <v>570211</v>
+        <v>286395</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2365,10 +2413,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>1149</v>
+        <v>560</v>
       </c>
       <c r="N14" s="7">
-        <v>1164780</v>
+        <v>579415</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2439,10 +2487,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>164</v>
+        <v>590</v>
       </c>
       <c r="D16" s="7">
-        <v>154569</v>
+        <v>559194</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -2454,10 +2502,10 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>192</v>
+        <v>577</v>
       </c>
       <c r="I16" s="7">
-        <v>206556</v>
+        <v>604425</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -2469,10 +2517,10 @@
         <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>356</v>
+        <v>1167</v>
       </c>
       <c r="N16" s="7">
-        <v>361125</v>
+        <v>1163618</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -2490,10 +2538,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>828</v>
+        <v>402</v>
       </c>
       <c r="D17" s="7">
-        <v>785971</v>
+        <v>381347</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -2505,10 +2553,10 @@
         <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>804</v>
+        <v>419</v>
       </c>
       <c r="I17" s="7">
-        <v>831076</v>
+        <v>433207</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -2520,10 +2568,10 @@
         <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>1632</v>
+        <v>821</v>
       </c>
       <c r="N17" s="7">
-        <v>1617047</v>
+        <v>814554</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -2544,7 +2592,7 @@
         <v>992</v>
       </c>
       <c r="D18" s="7">
-        <v>940540</v>
+        <v>940541</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2594,10 +2642,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>457</v>
+        <v>1961</v>
       </c>
       <c r="D19" s="7">
-        <v>461964</v>
+        <v>1986059</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>107</v>
@@ -2609,10 +2657,10 @@
         <v>109</v>
       </c>
       <c r="H19" s="7">
-        <v>599</v>
+        <v>2009</v>
       </c>
       <c r="I19" s="7">
-        <v>630467</v>
+        <v>2068380</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>110</v>
@@ -2624,19 +2672,19 @@
         <v>112</v>
       </c>
       <c r="M19" s="7">
-        <v>1056</v>
+        <v>3970</v>
       </c>
       <c r="N19" s="7">
-        <v>1092431</v>
+        <v>4054439</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2645,49 +2693,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>2753</v>
+        <v>1249</v>
       </c>
       <c r="D20" s="7">
-        <v>2810062</v>
+        <v>1285967</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
-        <v>2696</v>
+        <v>1286</v>
       </c>
       <c r="I20" s="7">
-        <v>2746755</v>
+        <v>1308842</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
-        <v>5449</v>
+        <v>2535</v>
       </c>
       <c r="N20" s="7">
-        <v>5556817</v>
+        <v>2594809</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2743,7 +2791,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2764,7 +2812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A865ED-B3C4-4FD5-91BC-8D5299B74558}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E5D4EB-048F-4924-8927-EF32FE432536}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2781,7 +2829,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2882,49 +2930,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="D4" s="7">
-        <v>22224</v>
+        <v>78032</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="I4" s="7">
-        <v>29368</v>
+        <v>79467</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="N4" s="7">
-        <v>51592</v>
+        <v>157499</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2933,49 +2981,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="D5" s="7">
-        <v>91800</v>
+        <v>35992</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H5" s="7">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="I5" s="7">
-        <v>82537</v>
+        <v>32438</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M5" s="7">
-        <v>169</v>
+        <v>67</v>
       </c>
       <c r="N5" s="7">
-        <v>174337</v>
+        <v>68430</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3037,49 +3085,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>61</v>
+        <v>299</v>
       </c>
       <c r="D7" s="7">
-        <v>64109</v>
+        <v>320980</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H7" s="7">
-        <v>74</v>
+        <v>337</v>
       </c>
       <c r="I7" s="7">
-        <v>79969</v>
+        <v>358545</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
-        <v>135</v>
+        <v>636</v>
       </c>
       <c r="N7" s="7">
-        <v>144077</v>
+        <v>679525</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3088,46 +3136,46 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>488</v>
+        <v>250</v>
       </c>
       <c r="D8" s="7">
-        <v>520515</v>
+        <v>263644</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H8" s="7">
-        <v>473</v>
+        <v>210</v>
       </c>
       <c r="I8" s="7">
-        <v>499477</v>
+        <v>220901</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M8" s="7">
-        <v>961</v>
+        <v>460</v>
       </c>
       <c r="N8" s="7">
-        <v>1019993</v>
+        <v>484545</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>21</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>160</v>
@@ -3192,10 +3240,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>168</v>
+        <v>574</v>
       </c>
       <c r="D10" s="7">
-        <v>187916</v>
+        <v>628671</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>161</v>
@@ -3207,10 +3255,10 @@
         <v>163</v>
       </c>
       <c r="H10" s="7">
-        <v>181</v>
+        <v>630</v>
       </c>
       <c r="I10" s="7">
-        <v>200935</v>
+        <v>695049</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>164</v>
@@ -3222,10 +3270,10 @@
         <v>166</v>
       </c>
       <c r="M10" s="7">
-        <v>349</v>
+        <v>1204</v>
       </c>
       <c r="N10" s="7">
-        <v>388851</v>
+        <v>1323720</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>167</v>
@@ -3243,10 +3291,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>764</v>
+        <v>358</v>
       </c>
       <c r="D11" s="7">
-        <v>825935</v>
+        <v>385180</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>170</v>
@@ -3258,10 +3306,10 @@
         <v>172</v>
       </c>
       <c r="H11" s="7">
-        <v>753</v>
+        <v>304</v>
       </c>
       <c r="I11" s="7">
-        <v>824917</v>
+        <v>330803</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>173</v>
@@ -3273,10 +3321,10 @@
         <v>175</v>
       </c>
       <c r="M11" s="7">
-        <v>1517</v>
+        <v>662</v>
       </c>
       <c r="N11" s="7">
-        <v>1650852</v>
+        <v>715983</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>176</v>
@@ -3347,49 +3395,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>116</v>
+        <v>400</v>
       </c>
       <c r="D13" s="7">
-        <v>133540</v>
+        <v>446448</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>129</v>
+        <v>179</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H13" s="7">
-        <v>134</v>
+        <v>437</v>
       </c>
       <c r="I13" s="7">
-        <v>150355</v>
+        <v>480551</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M13" s="7">
-        <v>250</v>
+        <v>837</v>
       </c>
       <c r="N13" s="7">
-        <v>283895</v>
+        <v>926999</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>184</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3398,49 +3446,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>566</v>
+        <v>282</v>
       </c>
       <c r="D14" s="7">
-        <v>616845</v>
+        <v>303937</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H14" s="7">
-        <v>569</v>
+        <v>266</v>
       </c>
       <c r="I14" s="7">
-        <v>624677</v>
+        <v>294481</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M14" s="7">
-        <v>1135</v>
+        <v>548</v>
       </c>
       <c r="N14" s="7">
-        <v>1241521</v>
+        <v>598417</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>191</v>
+        <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3502,49 +3550,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>161</v>
+        <v>608</v>
       </c>
       <c r="D16" s="7">
-        <v>171906</v>
+        <v>635356</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="H16" s="7">
+        <v>711</v>
+      </c>
+      <c r="I16" s="7">
+        <v>746930</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="I16" s="7">
-        <v>210436</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>195</v>
-      </c>
       <c r="K16" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>131</v>
+        <v>200</v>
       </c>
       <c r="M16" s="7">
-        <v>359</v>
+        <v>1319</v>
       </c>
       <c r="N16" s="7">
-        <v>382341</v>
+        <v>1382285</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3553,49 +3601,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>744</v>
+        <v>297</v>
       </c>
       <c r="D17" s="7">
-        <v>770963</v>
+        <v>307513</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="H17" s="7">
-        <v>795</v>
+        <v>282</v>
       </c>
       <c r="I17" s="7">
-        <v>829318</v>
+        <v>292824</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>140</v>
+        <v>208</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="M17" s="7">
-        <v>1539</v>
+        <v>579</v>
       </c>
       <c r="N17" s="7">
-        <v>1600281</v>
+        <v>600337</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3657,49 +3705,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>530</v>
+        <v>1963</v>
       </c>
       <c r="D19" s="7">
-        <v>579695</v>
+        <v>2109486</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H19" s="7">
-        <v>613</v>
+        <v>2185</v>
       </c>
       <c r="I19" s="7">
-        <v>671062</v>
+        <v>2360541</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="M19" s="7">
-        <v>1143</v>
+        <v>4148</v>
       </c>
       <c r="N19" s="7">
-        <v>1250757</v>
+        <v>4470028</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3708,49 +3756,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>2658</v>
+        <v>1225</v>
       </c>
       <c r="D20" s="7">
-        <v>2826057</v>
+        <v>1296266</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="H20" s="7">
-        <v>2663</v>
+        <v>1091</v>
       </c>
       <c r="I20" s="7">
-        <v>2860926</v>
+        <v>1171447</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="M20" s="7">
-        <v>5321</v>
+        <v>2316</v>
       </c>
       <c r="N20" s="7">
-        <v>5686984</v>
+        <v>2467713</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3806,7 +3854,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3827,7 +3875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED7978D-2410-416F-B8ED-04C5381803E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{712CE984-8529-4F4B-B4F1-7A4D1836027F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3844,7 +3892,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3945,49 +3993,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="D4" s="7">
-        <v>17272</v>
+        <v>71884</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H4" s="7">
+        <v>80</v>
+      </c>
+      <c r="I4" s="7">
+        <v>78147</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="H4" s="7">
-        <v>28</v>
-      </c>
-      <c r="I4" s="7">
-        <v>27621</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>229</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="M4" s="7">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="N4" s="7">
-        <v>44893</v>
+        <v>150030</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>233</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,49 +4044,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="D5" s="7">
-        <v>98216</v>
+        <v>43604</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H5" s="7">
+        <v>34</v>
+      </c>
+      <c r="I5" s="7">
+        <v>34245</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="H5" s="7">
-        <v>86</v>
-      </c>
-      <c r="I5" s="7">
-        <v>84771</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>238</v>
-      </c>
       <c r="M5" s="7">
-        <v>182</v>
+        <v>75</v>
       </c>
       <c r="N5" s="7">
-        <v>182986</v>
+        <v>77849</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>240</v>
+        <v>42</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,49 +4148,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>92</v>
+        <v>411</v>
       </c>
       <c r="D7" s="7">
-        <v>95736</v>
+        <v>424531</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="H7" s="7">
-        <v>109</v>
+        <v>435</v>
       </c>
       <c r="I7" s="7">
-        <v>112042</v>
+        <v>442361</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M7" s="7">
-        <v>201</v>
+        <v>846</v>
       </c>
       <c r="N7" s="7">
-        <v>207778</v>
+        <v>866892</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4151,49 +4199,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>446</v>
+        <v>127</v>
       </c>
       <c r="D8" s="7">
-        <v>461572</v>
+        <v>132777</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="H8" s="7">
-        <v>439</v>
+        <v>113</v>
       </c>
       <c r="I8" s="7">
-        <v>444529</v>
+        <v>114210</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="M8" s="7">
-        <v>885</v>
+        <v>240</v>
       </c>
       <c r="N8" s="7">
-        <v>906101</v>
+        <v>246987</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4255,49 +4303,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>126</v>
+        <v>700</v>
       </c>
       <c r="D10" s="7">
-        <v>134118</v>
+        <v>751451</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>262</v>
+        <v>129</v>
       </c>
       <c r="H10" s="7">
-        <v>137</v>
+        <v>743</v>
       </c>
       <c r="I10" s="7">
-        <v>150314</v>
+        <v>799954</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M10" s="7">
-        <v>263</v>
+        <v>1443</v>
       </c>
       <c r="N10" s="7">
-        <v>284432</v>
+        <v>1551406</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>145</v>
+        <v>269</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4306,49 +4354,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>823</v>
+        <v>249</v>
       </c>
       <c r="D11" s="7">
-        <v>886206</v>
+        <v>268873</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>269</v>
+        <v>137</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H11" s="7">
-        <v>835</v>
+        <v>229</v>
       </c>
       <c r="I11" s="7">
-        <v>887457</v>
+        <v>237817</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M11" s="7">
-        <v>1658</v>
+        <v>478</v>
       </c>
       <c r="N11" s="7">
-        <v>1773664</v>
+        <v>506690</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>153</v>
+        <v>277</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,49 +4458,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>113</v>
+        <v>558</v>
       </c>
       <c r="D13" s="7">
-        <v>124670</v>
+        <v>609693</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>96</v>
+        <v>280</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="H13" s="7">
-        <v>138</v>
+        <v>596</v>
       </c>
       <c r="I13" s="7">
-        <v>150918</v>
+        <v>638221</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>181</v>
+        <v>283</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>284</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="M13" s="7">
-        <v>251</v>
+        <v>1154</v>
       </c>
       <c r="N13" s="7">
-        <v>275588</v>
+        <v>1247914</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4461,49 +4509,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>578</v>
+        <v>133</v>
       </c>
       <c r="D14" s="7">
-        <v>629750</v>
+        <v>144727</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>106</v>
+        <v>289</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="H14" s="7">
-        <v>592</v>
+        <v>134</v>
       </c>
       <c r="I14" s="7">
-        <v>626852</v>
+        <v>139549</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>188</v>
+        <v>292</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>294</v>
       </c>
       <c r="M14" s="7">
-        <v>1170</v>
+        <v>267</v>
       </c>
       <c r="N14" s="7">
-        <v>1256602</v>
+        <v>284276</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4565,49 +4613,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>135</v>
+        <v>639</v>
       </c>
       <c r="D16" s="7">
-        <v>133707</v>
+        <v>640895</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>90</v>
+        <v>298</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="H16" s="7">
-        <v>157</v>
+        <v>663</v>
       </c>
       <c r="I16" s="7">
-        <v>177332</v>
+        <v>724282</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="M16" s="7">
-        <v>292</v>
+        <v>1302</v>
       </c>
       <c r="N16" s="7">
-        <v>311039</v>
+        <v>1365177</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4616,49 +4664,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>792</v>
+        <v>288</v>
       </c>
       <c r="D17" s="7">
-        <v>797777</v>
+        <v>290589</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>100</v>
+        <v>307</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="H17" s="7">
-        <v>800</v>
+        <v>294</v>
       </c>
       <c r="I17" s="7">
-        <v>864065</v>
+        <v>317115</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="M17" s="7">
-        <v>1592</v>
+        <v>582</v>
       </c>
       <c r="N17" s="7">
-        <v>1661843</v>
+        <v>607705</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4720,49 +4768,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>482</v>
+        <v>2379</v>
       </c>
       <c r="D19" s="7">
-        <v>505503</v>
+        <v>2498453</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>72</v>
+        <v>316</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="H19" s="7">
-        <v>569</v>
+        <v>2517</v>
       </c>
       <c r="I19" s="7">
-        <v>618226</v>
+        <v>2682965</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="M19" s="7">
-        <v>1051</v>
+        <v>4896</v>
       </c>
       <c r="N19" s="7">
-        <v>1123729</v>
+        <v>5181419</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4771,49 +4819,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>2735</v>
+        <v>838</v>
       </c>
       <c r="D20" s="7">
-        <v>2873521</v>
+        <v>880571</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>80</v>
+        <v>324</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>312</v>
-      </c>
       <c r="H20" s="7">
-        <v>2752</v>
+        <v>804</v>
       </c>
       <c r="I20" s="7">
-        <v>2907675</v>
+        <v>842936</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="M20" s="7">
-        <v>5487</v>
+        <v>1642</v>
       </c>
       <c r="N20" s="7">
-        <v>5781197</v>
+        <v>1723507</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4869,7 +4917,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4890,7 +4938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554D417B-28DC-499F-A3D1-B4D9217BBF3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39322CCC-F106-4D7B-8684-525FDD9B5E98}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4907,7 +4955,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5008,49 +5056,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="D4" s="7">
-        <v>21392</v>
+        <v>56035</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="H4" s="7">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="I4" s="7">
-        <v>20592</v>
+        <v>72186</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="M4" s="7">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="N4" s="7">
-        <v>41984</v>
+        <v>128221</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>327</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5059,49 +5107,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="D5" s="7">
-        <v>78587</v>
+        <v>43944</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="H5" s="7">
-        <v>195</v>
+        <v>93</v>
       </c>
       <c r="I5" s="7">
-        <v>108075</v>
+        <v>56481</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="M5" s="7">
-        <v>283</v>
+        <v>135</v>
       </c>
       <c r="N5" s="7">
-        <v>186661</v>
+        <v>100424</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>335</v>
+        <v>123</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5163,49 +5211,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>115</v>
+        <v>347</v>
       </c>
       <c r="D7" s="7">
-        <v>94280</v>
+        <v>285819</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="H7" s="7">
-        <v>203</v>
+        <v>594</v>
       </c>
       <c r="I7" s="7">
-        <v>109811</v>
+        <v>332582</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="M7" s="7">
-        <v>318</v>
+        <v>941</v>
       </c>
       <c r="N7" s="7">
-        <v>204092</v>
+        <v>618400</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>195</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5214,49 +5262,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>491</v>
+        <v>259</v>
       </c>
       <c r="D8" s="7">
-        <v>449889</v>
+        <v>258350</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="H8" s="7">
-        <v>783</v>
+        <v>392</v>
       </c>
       <c r="I8" s="7">
-        <v>477542</v>
+        <v>254771</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="M8" s="7">
-        <v>1274</v>
+        <v>651</v>
       </c>
       <c r="N8" s="7">
-        <v>927430</v>
+        <v>513122</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>202</v>
+        <v>85</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5318,49 +5366,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>173</v>
+        <v>587</v>
       </c>
       <c r="D10" s="7">
-        <v>150877</v>
+        <v>573611</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="H10" s="7">
-        <v>318</v>
+        <v>982</v>
       </c>
       <c r="I10" s="7">
-        <v>203631</v>
+        <v>651057</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>93</v>
+        <v>369</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="M10" s="7">
-        <v>491</v>
+        <v>1569</v>
       </c>
       <c r="N10" s="7">
-        <v>354509</v>
+        <v>1224668</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>290</v>
+        <v>371</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5369,49 +5417,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>782</v>
+        <v>368</v>
       </c>
       <c r="D11" s="7">
-        <v>881135</v>
+        <v>458401</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="H11" s="7">
-        <v>1181</v>
+        <v>517</v>
       </c>
       <c r="I11" s="7">
-        <v>846609</v>
+        <v>399183</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>103</v>
+        <v>379</v>
       </c>
       <c r="M11" s="7">
-        <v>1963</v>
+        <v>885</v>
       </c>
       <c r="N11" s="7">
-        <v>1727743</v>
+        <v>857584</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>298</v>
+        <v>380</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5473,49 +5521,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>112</v>
+        <v>420</v>
       </c>
       <c r="D13" s="7">
-        <v>101611</v>
+        <v>434435</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="H13" s="7">
-        <v>171</v>
+        <v>611</v>
       </c>
       <c r="I13" s="7">
-        <v>240829</v>
+        <v>547544</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="M13" s="7">
-        <v>283</v>
+        <v>1031</v>
       </c>
       <c r="N13" s="7">
-        <v>342440</v>
+        <v>981979</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>291</v>
+        <v>390</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5524,49 +5572,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>562</v>
+        <v>254</v>
       </c>
       <c r="D14" s="7">
-        <v>625652</v>
+        <v>292828</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="H14" s="7">
-        <v>869</v>
+        <v>429</v>
       </c>
       <c r="I14" s="7">
-        <v>630185</v>
+        <v>323470</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="M14" s="7">
-        <v>1431</v>
+        <v>683</v>
       </c>
       <c r="N14" s="7">
-        <v>1255837</v>
+        <v>616298</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5628,49 +5676,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>195</v>
+        <v>593</v>
       </c>
       <c r="D16" s="7">
-        <v>171324</v>
+        <v>542792</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>383</v>
+        <v>401</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="H16" s="7">
-        <v>298</v>
+        <v>880</v>
       </c>
       <c r="I16" s="7">
-        <v>200553</v>
+        <v>628888</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>388</v>
+        <v>183</v>
       </c>
       <c r="M16" s="7">
-        <v>493</v>
+        <v>1473</v>
       </c>
       <c r="N16" s="7">
-        <v>371876</v>
+        <v>1171681</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>129</v>
+        <v>406</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>390</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5679,49 +5727,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>799</v>
+        <v>401</v>
       </c>
       <c r="D17" s="7">
-        <v>782985</v>
+        <v>411517</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="H17" s="7">
-        <v>1243</v>
+        <v>661</v>
       </c>
       <c r="I17" s="7">
-        <v>934696</v>
+        <v>506361</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>395</v>
+        <v>192</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="M17" s="7">
-        <v>2042</v>
+        <v>1062</v>
       </c>
       <c r="N17" s="7">
-        <v>1717682</v>
+        <v>917877</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>139</v>
+        <v>413</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>397</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5783,49 +5831,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>624</v>
+        <v>2022</v>
       </c>
       <c r="D19" s="7">
-        <v>539484</v>
+        <v>1892692</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="H19" s="7">
-        <v>1034</v>
+        <v>3213</v>
       </c>
       <c r="I19" s="7">
-        <v>775417</v>
+        <v>2232257</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="M19" s="7">
-        <v>1658</v>
+        <v>5235</v>
       </c>
       <c r="N19" s="7">
-        <v>1314900</v>
+        <v>4124949</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5834,49 +5882,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>2722</v>
+        <v>1324</v>
       </c>
       <c r="D20" s="7">
-        <v>2818249</v>
+        <v>1465041</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="H20" s="7">
-        <v>4271</v>
+        <v>2092</v>
       </c>
       <c r="I20" s="7">
-        <v>2997105</v>
+        <v>1540265</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="M20" s="7">
-        <v>6993</v>
+        <v>3416</v>
       </c>
       <c r="N20" s="7">
-        <v>5815356</v>
+        <v>3005306</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5918,7 +5966,7 @@
         <v>8651</v>
       </c>
       <c r="N21" s="7">
-        <v>7130256</v>
+        <v>7130255</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5932,7 +5980,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57_AF_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57_AF_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{426ABD5B-287E-4053-8EEC-316E9A6A5557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE506882-2DCD-43CC-ABCE-F35CF2082A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{768C2A67-E692-48B1-8593-11166C355B75}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6D384B41-5852-4D84-86A8-3286E7178F2B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="374">
   <si>
     <t>Población con apoyo afectivo bajo (Duke) en 2007 (Tasa respuesta: 99,91%)</t>
   </si>
@@ -68,129 +68,72 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Apoyo bajo</t>
   </si>
   <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
   </si>
   <si>
     <t>Apoyo normal</t>
   </si>
   <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
@@ -248,7 +191,7 @@
     <t>41,3%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>56,7%</t>
@@ -422,444 +365,360 @@
     <t>Población con apoyo afectivo bajo (Duke) en 2012 (Tasa respuesta: 99,34%)</t>
   </si>
   <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>Población con apoyo afectivo bajo (Duke) en 2016 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
   </si>
   <si>
     <t>76,34%</t>
   </si>
   <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
   </si>
   <si>
     <t>23,66%</t>
   </si>
   <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>Población con apoyo afectivo bajo (Duke) en 2016 (Tasa respuesta: 99,53%)</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
     <t>29,3%</t>
   </si>
   <si>
@@ -1040,304 +899,268 @@
     <t>Población con apoyo afectivo bajo (Duke) en 2023 (Tasa respuesta: 98,95%)</t>
   </si>
   <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>65,04%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
   </si>
 </sst>
 </file>
@@ -1749,8 +1572,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D26F12-9CB0-43B1-98AF-1A052E6DD1D6}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3CC184E-A080-4E8E-83A5-F16C4ABF9AEA}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1867,10 +1690,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>65</v>
+        <v>461</v>
       </c>
       <c r="D4" s="7">
-        <v>70605</v>
+        <v>464461</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1882,10 +1705,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>89</v>
+        <v>466</v>
       </c>
       <c r="I4" s="7">
-        <v>78258</v>
+        <v>462753</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1897,10 +1720,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>154</v>
+        <v>927</v>
       </c>
       <c r="N4" s="7">
-        <v>148864</v>
+        <v>927214</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1918,10 +1741,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="D5" s="7">
-        <v>44753</v>
+        <v>229551</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1933,10 +1756,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>39</v>
+        <v>229</v>
       </c>
       <c r="I5" s="7">
-        <v>34497</v>
+        <v>224603</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1948,10 +1771,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>79</v>
+        <v>451</v>
       </c>
       <c r="N5" s="7">
-        <v>79249</v>
+        <v>454154</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1969,10 +1792,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1984,10 +1807,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>695</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>687356</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1999,10 +1822,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1378</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1381368</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2022,10 +1845,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>396</v>
+        <v>542</v>
       </c>
       <c r="D7" s="7">
-        <v>393856</v>
+        <v>578667</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2037,10 +1860,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>377</v>
+        <v>558</v>
       </c>
       <c r="I7" s="7">
-        <v>384494</v>
+        <v>603756</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2052,10 +1875,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>773</v>
+        <v>1100</v>
       </c>
       <c r="N7" s="7">
-        <v>778350</v>
+        <v>1182423</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2073,10 +1896,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>182</v>
+        <v>353</v>
       </c>
       <c r="D8" s="7">
-        <v>184798</v>
+        <v>382049</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2088,10 +1911,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>190</v>
+        <v>350</v>
       </c>
       <c r="I8" s="7">
-        <v>190107</v>
+        <v>364637</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2103,10 +1926,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>372</v>
+        <v>703</v>
       </c>
       <c r="N8" s="7">
-        <v>374905</v>
+        <v>746686</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2124,10 +1947,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>895</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>960716</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2139,10 +1962,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>567</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>574601</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2154,10 +1977,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1145</v>
+        <v>1803</v>
       </c>
       <c r="N9" s="7">
-        <v>1153255</v>
+        <v>1929109</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2177,10 +2000,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>542</v>
+        <v>368</v>
       </c>
       <c r="D10" s="7">
-        <v>578667</v>
+        <v>383737</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2192,10 +2015,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>558</v>
+        <v>408</v>
       </c>
       <c r="I10" s="7">
-        <v>603756</v>
+        <v>397446</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2207,10 +2030,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>1100</v>
+        <v>776</v>
       </c>
       <c r="N10" s="7">
-        <v>1182423</v>
+        <v>781184</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2228,10 +2051,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>353</v>
+        <v>272</v>
       </c>
       <c r="D11" s="7">
-        <v>382049</v>
+        <v>293021</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2243,10 +2066,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>350</v>
+        <v>288</v>
       </c>
       <c r="I11" s="7">
-        <v>364637</v>
+        <v>286395</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2258,10 +2081,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>703</v>
+        <v>560</v>
       </c>
       <c r="N11" s="7">
-        <v>746686</v>
+        <v>579415</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2279,10 +2102,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>895</v>
+        <v>640</v>
       </c>
       <c r="D12" s="7">
-        <v>960716</v>
+        <v>676758</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2294,10 +2117,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2309,10 +2132,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1803</v>
+        <v>1336</v>
       </c>
       <c r="N12" s="7">
-        <v>1929109</v>
+        <v>1360599</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2332,10 +2155,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>368</v>
+        <v>590</v>
       </c>
       <c r="D13" s="7">
-        <v>383737</v>
+        <v>559194</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2347,10 +2170,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>408</v>
+        <v>577</v>
       </c>
       <c r="I13" s="7">
-        <v>397446</v>
+        <v>604425</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2362,10 +2185,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>776</v>
+        <v>1167</v>
       </c>
       <c r="N13" s="7">
-        <v>781184</v>
+        <v>1163618</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2383,10 +2206,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>272</v>
+        <v>402</v>
       </c>
       <c r="D14" s="7">
-        <v>293021</v>
+        <v>381347</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2398,10 +2221,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>288</v>
+        <v>419</v>
       </c>
       <c r="I14" s="7">
-        <v>286395</v>
+        <v>433207</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2413,10 +2236,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>560</v>
+        <v>821</v>
       </c>
       <c r="N14" s="7">
-        <v>579415</v>
+        <v>814555</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2434,10 +2257,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>640</v>
+        <v>992</v>
       </c>
       <c r="D15" s="7">
-        <v>676758</v>
+        <v>940541</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2449,10 +2272,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>996</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1037632</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2464,10 +2287,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1336</v>
+        <v>1988</v>
       </c>
       <c r="N15" s="7">
-        <v>1360599</v>
+        <v>1978173</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2481,55 +2304,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>590</v>
+        <v>1961</v>
       </c>
       <c r="D16" s="7">
-        <v>559194</v>
+        <v>1986059</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>2009</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2068380</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>577</v>
-      </c>
-      <c r="I16" s="7">
-        <v>604425</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>3970</v>
+      </c>
+      <c r="N16" s="7">
+        <v>4054439</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>1167</v>
-      </c>
-      <c r="N16" s="7">
-        <v>1163618</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2538,49 +2361,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>402</v>
+        <v>1249</v>
       </c>
       <c r="D17" s="7">
-        <v>381347</v>
+        <v>1285967</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>1286</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1308842</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>419</v>
-      </c>
-      <c r="I17" s="7">
-        <v>433207</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>2535</v>
+      </c>
+      <c r="N17" s="7">
+        <v>2594809</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>821</v>
-      </c>
-      <c r="N17" s="7">
-        <v>814554</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,10 +2412,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>992</v>
+        <v>3210</v>
       </c>
       <c r="D18" s="7">
-        <v>940541</v>
+        <v>3272026</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2604,10 +2427,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>996</v>
+        <v>3295</v>
       </c>
       <c r="I18" s="7">
-        <v>1037632</v>
+        <v>3377222</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2619,10 +2442,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1988</v>
+        <v>6505</v>
       </c>
       <c r="N18" s="7">
-        <v>1978172</v>
+        <v>6649248</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2635,171 +2458,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1961</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1986059</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2009</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2068380</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3970</v>
-      </c>
-      <c r="N19" s="7">
-        <v>4054439</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1249</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1285967</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1286</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1308842</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2535</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2594809</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3210</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3272026</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3295</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3377222</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6505</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6649248</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2812,8 +2479,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E5D4EB-048F-4924-8927-EF32FE432536}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A6DE321-6A9F-49D2-8B1A-F648C3707F7A}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2829,7 +2496,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2930,49 +2597,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>82</v>
+        <v>381</v>
       </c>
       <c r="D4" s="7">
-        <v>78032</v>
+        <v>399012</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>70</v>
+        <v>407</v>
       </c>
       <c r="I4" s="7">
-        <v>79467</v>
+        <v>438012</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>152</v>
+        <v>788</v>
       </c>
       <c r="N4" s="7">
-        <v>157499</v>
+        <v>837024</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,49 +2648,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>38</v>
+        <v>288</v>
       </c>
       <c r="D5" s="7">
-        <v>35992</v>
+        <v>299636</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>29</v>
+        <v>239</v>
       </c>
       <c r="I5" s="7">
-        <v>32438</v>
+        <v>253339</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>67</v>
+        <v>527</v>
       </c>
       <c r="N5" s="7">
-        <v>68430</v>
+        <v>552975</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3032,10 +2699,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>120</v>
+        <v>669</v>
       </c>
       <c r="D6" s="7">
-        <v>114024</v>
+        <v>698648</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3047,10 +2714,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>646</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>691351</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3062,10 +2729,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>219</v>
+        <v>1315</v>
       </c>
       <c r="N6" s="7">
-        <v>225929</v>
+        <v>1389999</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3085,49 +2752,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>299</v>
+        <v>574</v>
       </c>
       <c r="D7" s="7">
-        <v>320980</v>
+        <v>628671</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>337</v>
+        <v>630</v>
       </c>
       <c r="I7" s="7">
-        <v>358545</v>
+        <v>695050</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>636</v>
+        <v>1204</v>
       </c>
       <c r="N7" s="7">
-        <v>679525</v>
+        <v>1323720</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,49 +2803,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>250</v>
+        <v>358</v>
       </c>
       <c r="D8" s="7">
-        <v>263644</v>
+        <v>385180</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>210</v>
+        <v>304</v>
       </c>
       <c r="I8" s="7">
-        <v>220901</v>
+        <v>330803</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
-        <v>460</v>
+        <v>662</v>
       </c>
       <c r="N8" s="7">
-        <v>484545</v>
+        <v>715983</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3187,10 +2854,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>549</v>
+        <v>932</v>
       </c>
       <c r="D9" s="7">
-        <v>584624</v>
+        <v>1013851</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3202,10 +2869,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>547</v>
+        <v>934</v>
       </c>
       <c r="I9" s="7">
-        <v>579446</v>
+        <v>1025853</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3217,10 +2884,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1096</v>
+        <v>1866</v>
       </c>
       <c r="N9" s="7">
-        <v>1164070</v>
+        <v>2039703</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3240,49 +2907,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>574</v>
+        <v>400</v>
       </c>
       <c r="D10" s="7">
-        <v>628671</v>
+        <v>446448</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
-        <v>630</v>
+        <v>437</v>
       </c>
       <c r="I10" s="7">
-        <v>695049</v>
+        <v>480551</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
-        <v>1204</v>
+        <v>837</v>
       </c>
       <c r="N10" s="7">
-        <v>1323720</v>
+        <v>926999</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>53</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,49 +2958,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>358</v>
+        <v>282</v>
       </c>
       <c r="D11" s="7">
-        <v>385180</v>
+        <v>303937</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="H11" s="7">
-        <v>304</v>
+        <v>266</v>
       </c>
       <c r="I11" s="7">
-        <v>330803</v>
+        <v>294481</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="M11" s="7">
-        <v>662</v>
+        <v>548</v>
       </c>
       <c r="N11" s="7">
-        <v>715983</v>
+        <v>598417</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>61</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3342,10 +3009,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>932</v>
+        <v>682</v>
       </c>
       <c r="D12" s="7">
-        <v>1013851</v>
+        <v>750385</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3357,10 +3024,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>934</v>
+        <v>703</v>
       </c>
       <c r="I12" s="7">
-        <v>1025852</v>
+        <v>775032</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3372,10 +3039,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1866</v>
+        <v>1385</v>
       </c>
       <c r="N12" s="7">
-        <v>2039703</v>
+        <v>1525416</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3395,49 +3062,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>400</v>
+        <v>608</v>
       </c>
       <c r="D13" s="7">
-        <v>446448</v>
+        <v>635356</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
-        <v>437</v>
+        <v>711</v>
       </c>
       <c r="I13" s="7">
-        <v>480551</v>
+        <v>746930</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="M13" s="7">
-        <v>837</v>
+        <v>1319</v>
       </c>
       <c r="N13" s="7">
-        <v>926999</v>
+        <v>1382285</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>166</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,49 +3113,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>297</v>
+      </c>
+      <c r="D14" s="7">
+        <v>307513</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H14" s="7">
         <v>282</v>
       </c>
-      <c r="D14" s="7">
-        <v>303937</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="H14" s="7">
-        <v>266</v>
-      </c>
       <c r="I14" s="7">
-        <v>294481</v>
+        <v>292824</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7">
-        <v>548</v>
+        <v>579</v>
       </c>
       <c r="N14" s="7">
-        <v>598417</v>
+        <v>600337</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3497,10 +3164,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>682</v>
+        <v>905</v>
       </c>
       <c r="D15" s="7">
-        <v>750385</v>
+        <v>942869</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3512,10 +3179,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>703</v>
+        <v>993</v>
       </c>
       <c r="I15" s="7">
-        <v>775032</v>
+        <v>1039754</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3527,10 +3194,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1385</v>
+        <v>1898</v>
       </c>
       <c r="N15" s="7">
-        <v>1525416</v>
+        <v>1982622</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3544,55 +3211,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>608</v>
+        <v>1963</v>
       </c>
       <c r="D16" s="7">
-        <v>635356</v>
+        <v>2109487</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="H16" s="7">
-        <v>711</v>
+        <v>2185</v>
       </c>
       <c r="I16" s="7">
-        <v>746930</v>
+        <v>2360541</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="M16" s="7">
-        <v>1319</v>
+        <v>4148</v>
       </c>
       <c r="N16" s="7">
-        <v>1382285</v>
+        <v>4470028</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,49 +3268,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>297</v>
+        <v>1225</v>
       </c>
       <c r="D17" s="7">
-        <v>307513</v>
+        <v>1296266</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="H17" s="7">
-        <v>282</v>
+        <v>1091</v>
       </c>
       <c r="I17" s="7">
-        <v>292824</v>
+        <v>1171447</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="M17" s="7">
-        <v>579</v>
+        <v>2316</v>
       </c>
       <c r="N17" s="7">
-        <v>600337</v>
+        <v>2467713</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3652,10 +3319,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>905</v>
+        <v>3188</v>
       </c>
       <c r="D18" s="7">
-        <v>942869</v>
+        <v>3405753</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3667,10 +3334,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>993</v>
+        <v>3276</v>
       </c>
       <c r="I18" s="7">
-        <v>1039754</v>
+        <v>3531988</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3682,10 +3349,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1898</v>
+        <v>6464</v>
       </c>
       <c r="N18" s="7">
-        <v>1982622</v>
+        <v>6937741</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3698,171 +3365,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1963</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2109486</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2185</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2360541</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M19" s="7">
-        <v>4148</v>
-      </c>
-      <c r="N19" s="7">
-        <v>4470028</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1225</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1296266</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1091</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1171447</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2316</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2467713</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3188</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3405752</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3276</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3531988</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6464</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6937741</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3875,8 +3386,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{712CE984-8529-4F4B-B4F1-7A4D1836027F}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428B94F1-5AE4-4E88-AF3D-A971A52F1313}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3892,7 +3403,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3993,49 +3504,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>71</v>
+        <v>482</v>
       </c>
       <c r="D4" s="7">
-        <v>71884</v>
+        <v>496415</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="H4" s="7">
-        <v>80</v>
+        <v>515</v>
       </c>
       <c r="I4" s="7">
-        <v>78147</v>
+        <v>520507</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>72</v>
+        <v>201</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="M4" s="7">
-        <v>151</v>
+        <v>997</v>
       </c>
       <c r="N4" s="7">
-        <v>150030</v>
+        <v>1016922</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>34</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,49 +3555,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="D5" s="7">
-        <v>43604</v>
+        <v>176381</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="H5" s="7">
-        <v>34</v>
+        <v>147</v>
       </c>
       <c r="I5" s="7">
-        <v>34245</v>
+        <v>148455</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>80</v>
+        <v>211</v>
       </c>
       <c r="M5" s="7">
-        <v>75</v>
+        <v>315</v>
       </c>
       <c r="N5" s="7">
-        <v>77849</v>
+        <v>324836</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>245</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4095,10 +3606,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>112</v>
+        <v>650</v>
       </c>
       <c r="D6" s="7">
-        <v>115488</v>
+        <v>672796</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4110,10 +3621,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>114</v>
+        <v>662</v>
       </c>
       <c r="I6" s="7">
-        <v>112392</v>
+        <v>668962</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4125,10 +3636,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>226</v>
+        <v>1312</v>
       </c>
       <c r="N6" s="7">
-        <v>227879</v>
+        <v>1341758</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4148,49 +3659,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>411</v>
+        <v>700</v>
       </c>
       <c r="D7" s="7">
-        <v>424531</v>
+        <v>751451</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="H7" s="7">
-        <v>435</v>
+        <v>743</v>
       </c>
       <c r="I7" s="7">
-        <v>442361</v>
+        <v>799954</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="M7" s="7">
-        <v>846</v>
+        <v>1443</v>
       </c>
       <c r="N7" s="7">
-        <v>866892</v>
+        <v>1551406</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,49 +3710,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>127</v>
+        <v>249</v>
       </c>
       <c r="D8" s="7">
-        <v>132777</v>
+        <v>268873</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="H8" s="7">
-        <v>113</v>
+        <v>229</v>
       </c>
       <c r="I8" s="7">
-        <v>114210</v>
+        <v>237817</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="M8" s="7">
-        <v>240</v>
+        <v>478</v>
       </c>
       <c r="N8" s="7">
-        <v>246987</v>
+        <v>506690</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4250,10 +3761,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>538</v>
+        <v>949</v>
       </c>
       <c r="D9" s="7">
-        <v>557308</v>
+        <v>1020324</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4265,10 +3776,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>548</v>
+        <v>972</v>
       </c>
       <c r="I9" s="7">
-        <v>556571</v>
+        <v>1037771</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4280,10 +3791,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1086</v>
+        <v>1921</v>
       </c>
       <c r="N9" s="7">
-        <v>1113879</v>
+        <v>2058096</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4303,49 +3814,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>700</v>
+        <v>558</v>
       </c>
       <c r="D10" s="7">
-        <v>751451</v>
+        <v>609693</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>129</v>
+        <v>235</v>
       </c>
       <c r="H10" s="7">
-        <v>743</v>
+        <v>596</v>
       </c>
       <c r="I10" s="7">
-        <v>799954</v>
+        <v>638221</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="M10" s="7">
-        <v>1443</v>
+        <v>1154</v>
       </c>
       <c r="N10" s="7">
-        <v>1551406</v>
+        <v>1247914</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4354,49 +3865,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>133</v>
+      </c>
+      <c r="D11" s="7">
+        <v>144727</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H11" s="7">
+        <v>134</v>
+      </c>
+      <c r="I11" s="7">
+        <v>139549</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="M11" s="7">
+        <v>267</v>
+      </c>
+      <c r="N11" s="7">
+        <v>284276</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="D11" s="7">
-        <v>268873</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="H11" s="7">
-        <v>229</v>
-      </c>
-      <c r="I11" s="7">
-        <v>237817</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="M11" s="7">
-        <v>478</v>
-      </c>
-      <c r="N11" s="7">
-        <v>506690</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>278</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4405,10 +3916,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>949</v>
+        <v>691</v>
       </c>
       <c r="D12" s="7">
-        <v>1020324</v>
+        <v>754420</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4420,10 +3931,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>972</v>
+        <v>730</v>
       </c>
       <c r="I12" s="7">
-        <v>1037771</v>
+        <v>777770</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4435,10 +3946,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1921</v>
+        <v>1421</v>
       </c>
       <c r="N12" s="7">
-        <v>2058096</v>
+        <v>1532190</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4458,49 +3969,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>558</v>
+        <v>639</v>
       </c>
       <c r="D13" s="7">
-        <v>609693</v>
+        <v>640896</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="H13" s="7">
-        <v>596</v>
+        <v>663</v>
       </c>
       <c r="I13" s="7">
-        <v>638221</v>
+        <v>724282</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="M13" s="7">
-        <v>1154</v>
+        <v>1302</v>
       </c>
       <c r="N13" s="7">
-        <v>1247914</v>
+        <v>1365177</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4509,49 +4020,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>133</v>
+        <v>288</v>
       </c>
       <c r="D14" s="7">
-        <v>144727</v>
+        <v>290589</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="H14" s="7">
-        <v>134</v>
+        <v>294</v>
       </c>
       <c r="I14" s="7">
-        <v>139549</v>
+        <v>317115</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="M14" s="7">
+        <v>582</v>
+      </c>
+      <c r="N14" s="7">
+        <v>607705</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="N14" s="7">
-        <v>284276</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>296</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4560,10 +4071,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>691</v>
+        <v>927</v>
       </c>
       <c r="D15" s="7">
-        <v>754420</v>
+        <v>931485</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4575,10 +4086,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>730</v>
+        <v>957</v>
       </c>
       <c r="I15" s="7">
-        <v>777770</v>
+        <v>1041397</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4590,10 +4101,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1421</v>
+        <v>1884</v>
       </c>
       <c r="N15" s="7">
-        <v>1532190</v>
+        <v>1972882</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4607,55 +4118,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>639</v>
+        <v>2379</v>
       </c>
       <c r="D16" s="7">
-        <v>640895</v>
+        <v>2498453</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>299</v>
+        <v>256</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="H16" s="7">
-        <v>663</v>
+        <v>2517</v>
       </c>
       <c r="I16" s="7">
-        <v>724282</v>
+        <v>2682965</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="M16" s="7">
-        <v>1302</v>
+        <v>4896</v>
       </c>
       <c r="N16" s="7">
-        <v>1365177</v>
+        <v>5181419</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>306</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4664,49 +4175,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>288</v>
+        <v>838</v>
       </c>
       <c r="D17" s="7">
-        <v>290589</v>
+        <v>880571</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>309</v>
+        <v>264</v>
       </c>
       <c r="H17" s="7">
-        <v>294</v>
+        <v>804</v>
       </c>
       <c r="I17" s="7">
-        <v>317115</v>
+        <v>842936</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>311</v>
+        <v>280</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>312</v>
+        <v>281</v>
       </c>
       <c r="M17" s="7">
-        <v>582</v>
+        <v>1642</v>
       </c>
       <c r="N17" s="7">
-        <v>607705</v>
+        <v>1723507</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>315</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,10 +4226,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>927</v>
+        <v>3217</v>
       </c>
       <c r="D18" s="7">
-        <v>931484</v>
+        <v>3379024</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4730,10 +4241,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>957</v>
+        <v>3321</v>
       </c>
       <c r="I18" s="7">
-        <v>1041397</v>
+        <v>3525901</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4745,10 +4256,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1884</v>
+        <v>6538</v>
       </c>
       <c r="N18" s="7">
-        <v>1972882</v>
+        <v>6904926</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4761,171 +4272,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2379</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2498453</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2517</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2682965</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="M19" s="7">
-        <v>4896</v>
-      </c>
-      <c r="N19" s="7">
-        <v>5181419</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>838</v>
-      </c>
-      <c r="D20" s="7">
-        <v>880571</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="H20" s="7">
-        <v>804</v>
-      </c>
-      <c r="I20" s="7">
-        <v>842936</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1642</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1723507</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3217</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3379024</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3321</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3525901</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6538</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6904926</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4938,8 +4293,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39322CCC-F106-4D7B-8684-525FDD9B5E98}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279BCD0B-151C-438B-9F88-24D9FFB6BD0D}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4955,7 +4310,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>332</v>
+        <v>285</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5056,49 +4411,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>75</v>
+        <v>422</v>
       </c>
       <c r="D4" s="7">
-        <v>56035</v>
+        <v>320299</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>333</v>
+        <v>286</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>334</v>
+        <v>287</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>335</v>
+        <v>288</v>
       </c>
       <c r="H4" s="7">
-        <v>146</v>
+        <v>740</v>
       </c>
       <c r="I4" s="7">
-        <v>72186</v>
+        <v>373127</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>336</v>
+        <v>289</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>337</v>
+        <v>290</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>338</v>
+        <v>291</v>
       </c>
       <c r="M4" s="7">
-        <v>221</v>
+        <v>1162</v>
       </c>
       <c r="N4" s="7">
-        <v>128221</v>
+        <v>693427</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>339</v>
+        <v>292</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>340</v>
+        <v>293</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>115</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5107,49 +4462,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>42</v>
+        <v>301</v>
       </c>
       <c r="D5" s="7">
-        <v>43944</v>
+        <v>307849</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>341</v>
+        <v>295</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>342</v>
+        <v>296</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>343</v>
+        <v>297</v>
       </c>
       <c r="H5" s="7">
-        <v>93</v>
+        <v>485</v>
       </c>
       <c r="I5" s="7">
-        <v>56481</v>
+        <v>295443</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>344</v>
+        <v>298</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>345</v>
+        <v>299</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>346</v>
+        <v>300</v>
       </c>
       <c r="M5" s="7">
-        <v>135</v>
+        <v>786</v>
       </c>
       <c r="N5" s="7">
-        <v>100424</v>
+        <v>603292</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>347</v>
+        <v>301</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>123</v>
+        <v>302</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>348</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5158,10 +4513,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>117</v>
+        <v>723</v>
       </c>
       <c r="D6" s="7">
-        <v>99979</v>
+        <v>628148</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5173,10 +4528,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>239</v>
+        <v>1225</v>
       </c>
       <c r="I6" s="7">
-        <v>128667</v>
+        <v>668570</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5188,10 +4543,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>356</v>
+        <v>1948</v>
       </c>
       <c r="N6" s="7">
-        <v>228645</v>
+        <v>1296719</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5211,49 +4566,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>347</v>
+        <v>587</v>
       </c>
       <c r="D7" s="7">
-        <v>285819</v>
+        <v>542745</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>349</v>
+        <v>304</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>350</v>
+        <v>305</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>351</v>
+        <v>306</v>
       </c>
       <c r="H7" s="7">
-        <v>594</v>
+        <v>982</v>
       </c>
       <c r="I7" s="7">
-        <v>332582</v>
+        <v>580763</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>352</v>
+        <v>307</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>353</v>
+        <v>73</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>354</v>
+        <v>308</v>
       </c>
       <c r="M7" s="7">
-        <v>941</v>
+        <v>1569</v>
       </c>
       <c r="N7" s="7">
-        <v>618400</v>
+        <v>1123509</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>355</v>
+        <v>309</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>356</v>
+        <v>310</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>76</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5262,49 +4617,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>259</v>
+        <v>368</v>
       </c>
       <c r="D8" s="7">
-        <v>258350</v>
+        <v>643157</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>357</v>
+        <v>312</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>358</v>
+        <v>313</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>359</v>
+        <v>314</v>
       </c>
       <c r="H8" s="7">
-        <v>392</v>
+        <v>517</v>
       </c>
       <c r="I8" s="7">
-        <v>254771</v>
+        <v>368655</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>362</v>
+        <v>82</v>
       </c>
       <c r="M8" s="7">
-        <v>651</v>
+        <v>885</v>
       </c>
       <c r="N8" s="7">
-        <v>513122</v>
+        <v>1011811</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>363</v>
+        <v>317</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>85</v>
+        <v>318</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5313,10 +4668,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>606</v>
+        <v>955</v>
       </c>
       <c r="D9" s="7">
-        <v>544169</v>
+        <v>1185902</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5328,10 +4683,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>986</v>
+        <v>1499</v>
       </c>
       <c r="I9" s="7">
-        <v>587353</v>
+        <v>949418</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5343,10 +4698,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1592</v>
+        <v>2454</v>
       </c>
       <c r="N9" s="7">
-        <v>1131522</v>
+        <v>2135320</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5366,49 +4721,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>587</v>
+        <v>420</v>
       </c>
       <c r="D10" s="7">
-        <v>573611</v>
+        <v>415432</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>366</v>
+        <v>321</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>367</v>
+        <v>322</v>
       </c>
       <c r="H10" s="7">
-        <v>982</v>
+        <v>611</v>
       </c>
       <c r="I10" s="7">
-        <v>651057</v>
+        <v>606379</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>368</v>
+        <v>323</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>369</v>
+        <v>324</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>370</v>
+        <v>325</v>
       </c>
       <c r="M10" s="7">
-        <v>1569</v>
+        <v>1031</v>
       </c>
       <c r="N10" s="7">
-        <v>1224668</v>
+        <v>1021811</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>371</v>
+        <v>326</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>372</v>
+        <v>327</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>373</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5417,49 +4772,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>368</v>
+        <v>254</v>
       </c>
       <c r="D11" s="7">
-        <v>458401</v>
+        <v>287798</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>374</v>
+        <v>329</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>375</v>
+        <v>330</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>376</v>
+        <v>331</v>
       </c>
       <c r="H11" s="7">
-        <v>517</v>
+        <v>429</v>
       </c>
       <c r="I11" s="7">
-        <v>399183</v>
+        <v>323892</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>377</v>
+        <v>332</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>379</v>
+        <v>334</v>
       </c>
       <c r="M11" s="7">
-        <v>885</v>
+        <v>683</v>
       </c>
       <c r="N11" s="7">
-        <v>857584</v>
+        <v>611690</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>380</v>
+        <v>335</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>381</v>
+        <v>336</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>382</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5468,10 +4823,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>955</v>
+        <v>674</v>
       </c>
       <c r="D12" s="7">
-        <v>1032012</v>
+        <v>703230</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5483,10 +4838,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1499</v>
+        <v>1040</v>
       </c>
       <c r="I12" s="7">
-        <v>1050240</v>
+        <v>930271</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5498,10 +4853,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2454</v>
+        <v>1714</v>
       </c>
       <c r="N12" s="7">
-        <v>2082252</v>
+        <v>1633501</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5521,49 +4876,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>420</v>
+        <v>593</v>
       </c>
       <c r="D13" s="7">
-        <v>434435</v>
+        <v>503298</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>383</v>
+        <v>338</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>384</v>
+        <v>339</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>385</v>
+        <v>340</v>
       </c>
       <c r="H13" s="7">
-        <v>611</v>
+        <v>880</v>
       </c>
       <c r="I13" s="7">
-        <v>547544</v>
+        <v>556520</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>386</v>
+        <v>341</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>387</v>
+        <v>342</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>388</v>
+        <v>343</v>
       </c>
       <c r="M13" s="7">
-        <v>1031</v>
+        <v>1473</v>
       </c>
       <c r="N13" s="7">
-        <v>981979</v>
+        <v>1059818</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>389</v>
+        <v>344</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>390</v>
+        <v>345</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>391</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5572,49 +4927,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>254</v>
+        <v>401</v>
       </c>
       <c r="D14" s="7">
-        <v>292828</v>
+        <v>412958</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>392</v>
+        <v>347</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>393</v>
+        <v>348</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>394</v>
+        <v>349</v>
       </c>
       <c r="H14" s="7">
-        <v>429</v>
+        <v>661</v>
       </c>
       <c r="I14" s="7">
-        <v>323470</v>
+        <v>524743</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>395</v>
+        <v>350</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>396</v>
+        <v>351</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>397</v>
+        <v>352</v>
       </c>
       <c r="M14" s="7">
-        <v>683</v>
+        <v>1062</v>
       </c>
       <c r="N14" s="7">
-        <v>616298</v>
+        <v>937701</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>398</v>
+        <v>353</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>399</v>
+        <v>354</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>400</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5623,10 +4978,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>674</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>727263</v>
+        <v>916256</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5638,10 +4993,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1040</v>
+        <v>1541</v>
       </c>
       <c r="I15" s="7">
-        <v>871014</v>
+        <v>1081263</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5653,10 +5008,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1714</v>
+        <v>2535</v>
       </c>
       <c r="N15" s="7">
-        <v>1598277</v>
+        <v>1997519</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5670,55 +5025,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>593</v>
+        <v>2022</v>
       </c>
       <c r="D16" s="7">
-        <v>542792</v>
+        <v>1781775</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>401</v>
+        <v>356</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>402</v>
+        <v>357</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>403</v>
+        <v>358</v>
       </c>
       <c r="H16" s="7">
-        <v>880</v>
+        <v>3213</v>
       </c>
       <c r="I16" s="7">
-        <v>628888</v>
+        <v>2116789</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>404</v>
+        <v>359</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>405</v>
+        <v>360</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>183</v>
+        <v>361</v>
       </c>
       <c r="M16" s="7">
-        <v>1473</v>
+        <v>5235</v>
       </c>
       <c r="N16" s="7">
-        <v>1171681</v>
+        <v>3898565</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>406</v>
+        <v>362</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>407</v>
+        <v>363</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>92</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5727,49 +5082,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>401</v>
+        <v>1324</v>
       </c>
       <c r="D17" s="7">
-        <v>411517</v>
+        <v>1651761</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>408</v>
+        <v>365</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>409</v>
+        <v>366</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>410</v>
+        <v>367</v>
       </c>
       <c r="H17" s="7">
-        <v>661</v>
+        <v>2092</v>
       </c>
       <c r="I17" s="7">
-        <v>506361</v>
+        <v>1512733</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>411</v>
+        <v>368</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>192</v>
+        <v>369</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>412</v>
+        <v>370</v>
       </c>
       <c r="M17" s="7">
-        <v>1062</v>
+        <v>3416</v>
       </c>
       <c r="N17" s="7">
-        <v>917877</v>
+        <v>3164493</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>413</v>
+        <v>371</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>372</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>414</v>
+        <v>373</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5778,10 +5133,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3346</v>
       </c>
       <c r="D18" s="7">
-        <v>954309</v>
+        <v>3433536</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5793,10 +5148,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1541</v>
+        <v>5305</v>
       </c>
       <c r="I18" s="7">
-        <v>1135249</v>
+        <v>3629522</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5808,10 +5163,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2535</v>
+        <v>8651</v>
       </c>
       <c r="N18" s="7">
-        <v>2089558</v>
+        <v>7063058</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5824,171 +5179,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2022</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1892692</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3213</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2232257</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="M19" s="7">
-        <v>5235</v>
-      </c>
-      <c r="N19" s="7">
-        <v>4124949</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1324</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1465041</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2092</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1540265</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3416</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3005306</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3346</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3357733</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5305</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3772522</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8651</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7130255</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
